--- a/SaveEarth/Assets/Economy/CostProgression.xlsx
+++ b/SaveEarth/Assets/Economy/CostProgression.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E517B2C-E212-4DEA-8430-0153A1E24A64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB177AB-866E-4287-AB05-67F7224BB205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1620" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DataID</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>metal_3</t>
-  </si>
-  <si>
-    <t>food_4</t>
-  </si>
-  <si>
-    <t>wood_4</t>
-  </si>
-  <si>
-    <t>stone_4</t>
-  </si>
-  <si>
-    <t>metal_4</t>
   </si>
 </sst>
 </file>
@@ -388,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,54 +424,210 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
       <c r="F2">
         <v>1500</v>
       </c>
+      <c r="G2">
+        <v>1800</v>
+      </c>
+      <c r="H2">
+        <v>800</v>
+      </c>
+      <c r="I2">
+        <v>700</v>
+      </c>
       <c r="J2">
         <v>3500</v>
       </c>
+      <c r="K2">
+        <v>3800</v>
+      </c>
+      <c r="L2">
+        <v>2800</v>
+      </c>
+      <c r="M2">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3">
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>75</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>600</v>
+      </c>
+      <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
+        <v>500</v>
+      </c>
+      <c r="I4">
+        <v>400</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <v>1200</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>800</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
+        <v>700</v>
+      </c>
+      <c r="I5">
+        <v>350</v>
+      </c>
+      <c r="J5">
+        <v>2500</v>
+      </c>
+      <c r="K5">
+        <v>1600</v>
+      </c>
+      <c r="L5">
+        <v>1200</v>
+      </c>
+      <c r="M5">
+        <v>750</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>400</v>
+      </c>
+      <c r="K6">
+        <v>400</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
